--- a/members contribution.xlsx
+++ b/members contribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han Tun\IdeaProjects\DevOps4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01DECF-B384-434A-B2B5-0D90E70E0EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4588B9D1-0022-49A0-9ECF-F34A25703C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,9 @@
       <c r="B5" s="2">
         <v>40437506</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>25</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -447,7 +449,9 @@
       <c r="B6" s="2">
         <v>40437529</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -457,7 +461,9 @@
       <c r="B7" s="2">
         <v>40437509</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -467,7 +473,9 @@
       <c r="B8" s="2">
         <v>40437522</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -485,7 +493,9 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>

--- a/members contribution.xlsx
+++ b/members contribution.xlsx
@@ -5,20 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han Tun\IdeaProjects\DevOps4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\IdeaProjects\DevOps4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4588B9D1-0022-49A0-9ECF-F34A25703C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16237AF1-175F-4FD4-A6E0-4EE71C725835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -400,7 +408,7 @@
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,8 +448,12 @@
       <c r="C5" s="2">
         <v>25</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -452,8 +464,12 @@
       <c r="C6" s="2">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -464,8 +480,12 @@
       <c r="C7" s="2">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -476,8 +496,12 @@
       <c r="C8" s="2">
         <v>25</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -494,11 +518,21 @@
         <v>6</v>
       </c>
       <c r="C10" s="2">
+        <f>SUM(C5:C9)</f>
         <v>100</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2">
+        <f>SUM(D5,D6,D7,D8)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(E5,E6,E7,E8)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <f>SUM(F5,F6,F7,F8)</f>
+        <v>0</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
   </sheetData>
